--- a/PhanMem/Data/Cat-Ngay.xlsx
+++ b/PhanMem/Data/Cat-Ngay.xlsx
@@ -241,7 +241,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -249,35 +249,29 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -584,118 +578,118 @@
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="M1" s="11" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="M1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -717,13 +711,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="G3:G4"/>
@@ -737,6 +724,13 @@
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/PhanMem/Data/Cat-Ngay.xlsx
+++ b/PhanMem/Data/Cat-Ngay.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>TỔNG SẢN PHẨM TRONG NGÀY</t>
   </si>
@@ -64,13 +65,40 @@
   </si>
   <si>
     <t>TỔNG LƯƠNG TRONG NGÀY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BẢNG TỔNG HỢP NHẬP XUẤT TỒN </t>
+  </si>
+  <si>
+    <t>KHỔ</t>
+  </si>
+  <si>
+    <t>Tồn đầu kỳ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhập </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xuất </t>
+  </si>
+  <si>
+    <t>SL cắt (cái)</t>
+  </si>
+  <si>
+    <t>Tồn cuối kỳ</t>
+  </si>
+  <si>
+    <t>Số kg</t>
+  </si>
+  <si>
+    <t>Số cuộn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +142,21 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -129,7 +172,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -231,6 +274,51 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -241,7 +329,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -249,6 +337,24 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -272,6 +378,30 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -578,118 +708,118 @@
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="M1" s="5" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="M1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -735,4 +865,127 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="24"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="20"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="22"/>
+      <c r="J4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:K3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>